--- a/Result/Orbit/Service/IND.xlsx
+++ b/Result/Orbit/Service/IND.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>33.80725873570828</v>
+        <v>33.88659060052984</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>33.87161863576137</v>
+        <v>34.17162803993343</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>34.89683727774281</v>
+        <v>33.97567260176975</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>34.52160063054068</v>
+        <v>35.05445058992173</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>35.42081608496181</v>
+        <v>34.60666333493156</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>36.11499977204893</v>
+        <v>35.40073850081455</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>36.98846783564461</v>
+        <v>36.48171856964565</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>37.45227949228939</v>
+        <v>37.35329593881302</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>36.79644550543219</v>
+        <v>37.74495579223644</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>37.22939797954959</v>
+        <v>37.07859650672992</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>37.04478519464807</v>
+        <v>37.26945080740827</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>37.78569002371795</v>
+        <v>37.16556292799223</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>37.91256818206074</v>
+        <v>37.85302907762376</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>38.49068491702259</v>
+        <v>38.08132546465559</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>37.49630233983369</v>
+        <v>38.82595289765776</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>37.84966811833396</v>
+        <v>37.56841160029229</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>37.70932947359798</v>
+        <v>37.90258427174636</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>39.07955152360464</v>
+        <v>37.7119651653213</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13256872693889</v>
+        <v>39.17400524845956</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>41.96573778685435</v>
+        <v>40.70484821734414</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>42.73292664295458</v>
+        <v>42.68585576695698</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>43.80896126298813</v>
+        <v>43.39058652072161</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>44.72882755413038</v>
+        <v>44.36415916734119</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>44.7046456533001</v>
+        <v>45.2900051914196</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>44.11485897224708</v>
+        <v>45.12363198235315</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>44.44293292274983</v>
+        <v>44.20792027618018</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>44.04323571148997</v>
+        <v>44.50204329798122</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>44.00815792391437</v>
+        <v>43.96928110362271</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>45.88254990700625</v>
+        <v>44.11903871304626</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>45.98488281191449</v>
+        <v>46.29289760942358</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>45.03374956261907</v>
+        <v>46.31685864554255</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>45.44214525076269</v>
+        <v>45.11595755732187</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>46.30114729808293</v>
+        <v>45.39806418239589</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.69871476936741</v>
+        <v>46.55872794307272</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>47.82241375588313</v>
+        <v>46.78543845059716</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>47.78374812041928</v>
+        <v>48.23389395929219</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>47.74940128997481</v>
+        <v>48.20632811786969</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>47.74940129028688</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>47.88153189765541</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46.83221230195585</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.4235829384374</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>47.74940129028688</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>48.0052339261121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.5462091162963</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.29382688997852</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>47.74940129028688</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>47.89025264216383</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.53018643563806</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.93655158009228</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>47.74940129028688</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>47.73952617745243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44.22836592846519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.15642377669079</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>47.74940129028688</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>47.6049128327375</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43.33741974339986</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.03839529082194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>33.80725873570828</v>
+        <v>33.76909904732284</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>33.87161863576137</v>
+        <v>34.34497775307645</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>34.89683727774281</v>
+        <v>34.1568962940791</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>34.52160063054068</v>
+        <v>35.14398854251539</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>35.42081608496181</v>
+        <v>34.7925903032353</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>36.11499977204893</v>
+        <v>35.61829175830205</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>36.98846783564461</v>
+        <v>36.54928348551482</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>37.45227949228939</v>
+        <v>37.42011079686481</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>36.79644550543219</v>
+        <v>37.75790010778319</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>37.22939797954959</v>
+        <v>36.98047379555121</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>37.04478519464807</v>
+        <v>37.2477367508298</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>37.78569002371795</v>
+        <v>37.14040120072228</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>37.91256818206074</v>
+        <v>37.67391524895849</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>38.49068491702259</v>
+        <v>37.91884914490003</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>37.49630233983369</v>
+        <v>38.68137316224174</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>37.84966811833396</v>
+        <v>37.60224443506657</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>37.70932947359798</v>
+        <v>37.73584441694324</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>39.07955152360464</v>
+        <v>37.54781073515649</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13256872693889</v>
+        <v>39.29002391817333</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>41.96573778685435</v>
+        <v>40.26197371677103</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>42.73292664295458</v>
+        <v>42.39125750980963</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>43.80896126298813</v>
+        <v>43.36910342915785</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>44.72882755413038</v>
+        <v>44.34520815540225</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>44.7046456533001</v>
+        <v>45.24864965899464</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>44.11485897224708</v>
+        <v>45.00773990059403</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>44.44293292274983</v>
+        <v>44.39870509984399</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>44.04323571148997</v>
+        <v>44.40785572801987</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>44.00815792391437</v>
+        <v>44.00732214385798</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>45.88254990700625</v>
+        <v>43.98887257018401</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>45.98488281191449</v>
+        <v>45.91291461833809</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>45.03374956261907</v>
+        <v>46.34262710119063</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>45.44214525076269</v>
+        <v>45.31993210431754</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>46.30114729808293</v>
+        <v>45.54672721888184</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.69871476936741</v>
+        <v>46.61064641606113</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>47.82241375588313</v>
+        <v>46.86780655672275</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>47.78374812041928</v>
+        <v>47.91227950862103</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>47.74940128997481</v>
+        <v>48.02360439964224</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>47.67088996844124</v>
+        <v>47.99370360679862</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>48.43156631546972</v>
+        <v>47.92161138340558</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>50.10766891732897</v>
+        <v>48.55147201315387</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>48.43685677249766</v>
+        <v>50.32150542268754</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>47.69042660210175</v>
+        <v>48.68590789067483</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>47.6904266396723</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>47.57754856791308</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46.37498132547026</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.093494255278</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>47.6904266396723</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>47.22961407798292</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.79416316385936</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.81338673488985</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>47.6904266396723</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>47.24966557013955</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.58190029033373</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.17160428818326</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>47.6904266396723</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>47.42284410901145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>44.19397117937568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.57275149216256</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>47.6904266396723</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>47.2596786236561</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43.0117697577819</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.97984503497744</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
